--- a/biology/Botanique/Molène_blattaire/Molène_blattaire.xlsx
+++ b/biology/Botanique/Molène_blattaire/Molène_blattaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_blattaire</t>
+          <t>Molène_blattaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbascum blattaria
 La Molène blattaire ou Herbe-aux-mites, (Verbascum blattaria) est une plante herbacée de la famille des Scrofulariacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_blattaire</t>
+          <t>Molène_blattaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite par le naturaliste suédois Carl von Linné en 1753[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite par le naturaliste suédois Carl von Linné en 1753.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_blattaire</t>
+          <t>Molène_blattaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			" Habitus "
@@ -551,17 +567,86 @@
 			Fleur
 			Fleur, forme blanche
 			Capsules - Muséum de Toulouse.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Molène_blattaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_blattaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Type d'inflorescence : racème simple
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame, autogame
 Période de floraison : juin à septembre
 Graine
 Type de fruit : capsule
-Mode de dissémination : épizoochore
-Habitat et répartition
-Habitat type : friches vivaces xérophiles, médioeuropéennes, mésothermes
+Mode de dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Molène_blattaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_blattaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habitat type : friches vivaces xérophiles, médioeuropéennes, mésothermes
 Aire de répartition : européen méridional
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
 </t>
